--- a/training/ikura/dbInfo/metadata.xlsx
+++ b/training/ikura/dbInfo/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\something\zebura\training\it\dbInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\something\zebura\training\ikura\dbInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D637F0A-6777-4701-AA78-61A4EF988EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECD24C-6C6B-4476-BB63-94C835685430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>no</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>column_name</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>name_zh</t>
@@ -1420,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19069554-89FA-4106-994E-5F9FC1E453B4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,42 +1429,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1479,15 +1476,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,409 +1515,406 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>83</v>
       </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>88</v>
       </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>91</v>
       </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>94</v>
       </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>96</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s">
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>99</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>100</v>
       </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>102</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>103</v>
       </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>106</v>
       </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>114</v>
       </c>
-      <c r="H39" t="s">
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>116</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>117</v>
       </c>
-      <c r="H40" t="s">
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>119</v>
-      </c>
-      <c r="F41" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1931,15 +1925,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1970,52 +1964,49 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/training/ikura/dbInfo/metadata.xlsx
+++ b/training/ikura/dbInfo/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\something\zebura\training\ikura\dbInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECD24C-6C6B-4476-BB63-94C835685430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C203BF-CB7F-45E0-9E45-A21FBF1D6CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>no</t>
   </si>
@@ -437,6 +437,14 @@
   </si>
   <si>
     <t>project_code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1476,15 +1484,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1495,425 +1503,428 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>72</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>82</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>87</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>93</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>99</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>102</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>105</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>124</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>110</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>116</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1925,15 +1936,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1944,68 +1955,74 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>111</v>
       </c>
     </row>
